--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\ETZ\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETZ\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EC4D0E-4869-471C-8B41-134C02723A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4361FDD0-B144-4021-96A8-F42778765EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="#不导出的表单" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -263,6 +264,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>366345</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>55684</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>1207476</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>70339</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>按钮 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,24 +630,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -588,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -608,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -628,7 +707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -648,7 +727,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -668,7 +747,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -688,7 +767,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -708,7 +787,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -728,7 +807,7 @@
         <v>10006</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -752,6 +831,36 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!按钮1_Click">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>365760</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>53340</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>1203960</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>68580</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -759,21 +868,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -793,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -813,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -833,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -856,4 +965,107 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0DD27D-5279-4475-ADB5-B97116C4257B}">
+  <dimension ref="C3:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\ETZ\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2709AE-0ED6-4488-A741-FC75CC81F210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E1132D-34B0-4051-B2E6-35CA0395FC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22800" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>Account_IG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -199,6 +203,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -261,7 +333,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="32004" rIns="45720" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -296,7 +368,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -578,20 +650,20 @@
   <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1328125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -611,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -631,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -651,7 +723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -671,7 +743,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -691,7 +763,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -711,7 +783,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -729,7 +801,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -747,7 +819,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -765,7 +837,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -778,11 +850,11 @@
       <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
+      <c r="G12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="3">
-        <v>10008</v>
+        <v>10005</v>
       </c>
     </row>
   </sheetData>
@@ -830,17 +902,17 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1328125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -860,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -880,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -900,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -933,17 +1005,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1328125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -963,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +1075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>200</v>
       </c>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\ETZ\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E1132D-34B0-4051-B2E6-35CA0395FC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D349EB-261F-4E76-82E6-1BB3A308B9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>Account_IG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter_IG</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -293,15 +301,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1200150</xdr:colOff>
+          <xdr:colOff>1203960</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -333,7 +341,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="32004" rIns="45720" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -647,23 +655,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -683,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -703,7 +711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -723,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -743,7 +751,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -763,7 +771,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -783,7 +791,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -801,7 +809,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -819,7 +827,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -837,7 +845,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -855,6 +863,23 @@
       </c>
       <c r="H12" s="3">
         <v>10005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -873,15 +898,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1200150</xdr:colOff>
+                    <xdr:colOff>1203960</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -902,17 +927,17 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -932,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -952,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -972,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -1005,17 +1030,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D349EB-261F-4E76-82E6-1BB3A308B9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF9EBE5-860F-4DAA-9615-D6FD741D1E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>LoginCenter_IG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H13"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -880,6 +892,40 @@
       </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
